--- a/medicine/Sexualité et sexologie/La_Saveur_de_la_pastèque/La_Saveur_de_la_pastèque.xlsx
+++ b/medicine/Sexualité et sexologie/La_Saveur_de_la_pastèque/La_Saveur_de_la_pastèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Saveur_de_la_past%C3%A8que</t>
+          <t>La_Saveur_de_la_pastèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Saveur de la pastèque (chinois : 天邊一朵雲, pinyin: tiān biān yi duǒyún, signifiant « un petit nuage au bord du paradis ») est un film franco-taïwanais réalisé par Tsai Ming-liang, sorti en 2005. Il a d'abord été intitulé Un nuage au bord du ciel avant sa sortie en salles.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Saveur_de_la_past%C3%A8que</t>
+          <t>La_Saveur_de_la_pastèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film se déroule durant une sécheresse à Taïwan. L'eau est coupée de 14 à 22 heures. Shiang-chyi en vole dans les toilettes publiques. Hsiao-Kang se baigne dans les réservoirs d'eau de pluie, au sommet des gratte-ciels. Le jus de pastèque est aussi devenu une alternative pour la population taïwanaise. Une liaison entre les deux protagonistes va se former petit à petit mais Hsiao-Kang cache son métier (acteur porno) à Shiang-chyi.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Saveur_de_la_past%C3%A8que</t>
+          <t>La_Saveur_de_la_pastèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Saveur de la pastèque
 Titre original : tiān biān yi duǒyún (天邊一朵雲), littéralement « un petit nuage au bord du paradis »
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Saveur_de_la_past%C3%A8que</t>
+          <t>La_Saveur_de_la_pastèque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lee Kang-sheng : Hsiao-kang
 Chen Shiang-chyi : Shiang-chyi
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Saveur_de_la_past%C3%A8que</t>
+          <t>La_Saveur_de_la_pastèque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Berlinale 2005 : Ours d'argent de la meilleure contribution artistique, prix Alfred-Bauer et prix FIPRESCI
 Festival des trois continents 2005 : Prix de la mise en scène pour Tsai Ming-liang
